--- a/biology/Écologie/Îles_de_Nouvelle-Sibérie/Îles_de_Nouvelle-Sibérie.xlsx
+++ b/biology/Écologie/Îles_de_Nouvelle-Sibérie/Îles_de_Nouvelle-Sibérie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%8Eles_de_Nouvelle-Sib%C3%A9rie</t>
+          <t>Îles_de_Nouvelle-Sibérie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les îles de Nouvelle-Sibérie ou Nouvelle-Sibérie (en russe : Новосибирские острова, Novossibirskie ostrova) sont un archipel russe des mers des Laptev et de Sibérie orientale, au nord des côtes de l'Extrême-Orient russe. Elles font partie de la république de Sakha.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%8Eles_de_Nouvelle-Sib%C3%A9rie</t>
+          <t>Îles_de_Nouvelle-Sibérie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'archipel comprend trois sous-ensembles :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'archipel comprend trois sous-ensembles :
 Les îles Anjou (en russe : Анжу острова) correspondent à la partie nord de l'archipel de Nouvelle-Sibérie et sont situées en mer de Sibérie orientale, à l'exception de l'île Belkov. Elles couvrent une superficie de 29 898 km2 et comprennent les îles suivantes :
 l'île Kotelny (о́стров Коте́льный), 11 665 km2 ;
 la péninsule Faddeïev (о́стров Фадде́евский), 5 300 km2 ;
@@ -533,11 +547,80 @@
 l'île Bennett (о́стров Бе́ннетта) ;
 l'île Vilkitski (о́стров Вильки́цкого) ;
 l'île Jokhov (о́стров Жо́хова) ;
-l'île de Iaïa découverte en décembre 2013.
-Relief
-La plus grande partie de l'archipel a une faible altitude. Il est composé d'agrégats de sédiments, la partie occidentale consiste en calcaire et en ardoise. Le point le plus élevé est de 374 m (le mont Malakatyne-Tas sur l'île Kotelny).
-Climat
-Le climat est un climat arctique sévère. La neige recouvre les îles neuf mois dans l'année.
+l'île de Iaïa découverte en décembre 2013.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Îles_de_Nouvelle-Sibérie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%8Eles_de_Nouvelle-Sib%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Relief</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plus grande partie de l'archipel a une faible altitude. Il est composé d'agrégats de sédiments, la partie occidentale consiste en calcaire et en ardoise. Le point le plus élevé est de 374 m (le mont Malakatyne-Tas sur l'île Kotelny).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Îles_de_Nouvelle-Sibérie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%8Eles_de_Nouvelle-Sib%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le climat est un climat arctique sévère. La neige recouvre les îles neuf mois dans l'année.
 température moyenne en janvier : −28 °C à −31 °C ;
 température moyenne en juillet : sur les côtes, les eaux gelées de l'océan Arctique maintiennent les températures relativement basses. Avec des moyennes maximales entre +8 °C et +11 °C et des moyennes minimales entre −3 °C et +1 °C. À l'intérieur des îles, la moyenne maximale varie entre +16 °C et +19 °C et la moyenne minimale entre +3 °C et +6 °C.
 Les précipitations sont supérieures à 132 mm par an.
@@ -546,62 +629,66 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%8Eles_de_Nouvelle-Sib%C3%A9rie</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Îles_de_Nouvelle-Sibérie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Écologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%8Eles_de_Nouvelle-Sib%C3%A9rie</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premières informations sur l'existence des îles de Nouvelle-Sibérie furent rapportées par le cosaque Iakov Permiakov (en) au début du XVIIIe siècle. En 1712, une unité cosaque menée par Merkouri Vaguine atteint la grande île Liakhov. Au début du XIXe siècle, les îles furent explorées, entre autres, par Iakov Sannikov et Matthias von Hedenström (1809-1810)[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premières informations sur l'existence des îles de Nouvelle-Sibérie furent rapportées par le cosaque Iakov Permiakov (en) au début du XVIIIe siècle. En 1712, une unité cosaque menée par Merkouri Vaguine atteint la grande île Liakhov. Au début du XIXe siècle, les îles furent explorées, entre autres, par Iakov Sannikov et Matthias von Hedenström (1809-1810).
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%8Eles_de_Nouvelle-Sib%C3%A9rie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Îles_de_Nouvelle-Sibérie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Écologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%8Eles_de_Nouvelle-Sib%C3%A9rie</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Environnement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'archipel constitue une écorégion terrestre dans la classification du Fonds mondial pour la nature sous le nom de « désert arctique des îles de Nouvelle-Sibérie ». Elle appartient au biome de la toundra de l'écozone paléarctique.
 </t>
